--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_8_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_8_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30418.52436735772</v>
+        <v>6053286.349104183</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30418.52436735772</v>
+        <v>6053286.349104183</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8483.523468084461</v>
+        <v>509011.4080850675</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8483.523468084461</v>
+        <v>509011.4080850675</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035566281.83886</v>
+        <v>42025139.67976597</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9062.538122398348</v>
+        <v>951386.2114142611</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17513.58135838117</v>
+        <v>1801465.713638762</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25964.62459436397</v>
+        <v>2651545.215863264</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34857.74087544266</v>
+        <v>3473342.885995723</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43750.85715652133</v>
+        <v>4295140.556128182</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52314.06057072625</v>
+        <v>5145234.444348064</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>60877.1916934971</v>
+        <v>5995313.946572562</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70188.56610747232</v>
+        <v>6879974.408366338</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78907.83643093964</v>
+        <v>7667176.732934132</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87526.62645313167</v>
+        <v>8505103.359251233</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>96089.82986733648</v>
+        <v>9355197.24747112</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>104652.9609901072</v>
+        <v>10205276.74969563</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>113216.092112878</v>
+        <v>11055356.25192013</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>121834.8098436359</v>
+        <v>11893268.49224186</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>130727.9261247146</v>
+        <v>12715066.16237433</v>
       </c>
     </row>
   </sheetData>
